--- a/medicine/Sexualité et sexologie/Shannon_Bell/Shannon_Bell.xlsx
+++ b/medicine/Sexualité et sexologie/Shannon_Bell/Shannon_Bell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shannon Bell, née le 5 juillet 1955, est une philosophe expérimentale et une activiste lesbienne, féministe canadienne. 
 </t>
@@ -511,9 +523,11 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shannon Bell est professeure et directrice du programme d'études supérieures au département de science politique de l'Université York à Toronto, au Canada. Elle enseigne la philosophie postmoderne, le féminisme postmoderne, la sexualité féminine, la culture numérique et les violences structurelles[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shannon Bell est professeure et directrice du programme d'études supérieures au département de science politique de l'Université York à Toronto, au Canada. Elle enseigne la philosophie postmoderne, le féminisme postmoderne, la sexualité féminine, la culture numérique et les violences structurelles. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Activisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1980, elle organise des performances avec Annie Sprinkle et Deborah Sundahl pour démontrer l'existence de l'éjaculation féminine[2]. En 2010, elle publie Fast Feminism. Elle mesure vitesses, distances et quantités de l'éjaculation féminine[3]. 
-Stephanie Haerdle relate l'activisme de Shannon Bell dans son ouvrage Fontaines – Histoire de l’éjaculation féminine de la Chine ancienne à nos jours, publié en 2021[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1980, elle organise des performances avec Annie Sprinkle et Deborah Sundahl pour démontrer l'existence de l'éjaculation féminine. En 2010, elle publie Fast Feminism. Elle mesure vitesses, distances et quantités de l'éjaculation féminine. 
+Stephanie Haerdle relate l'activisme de Shannon Bell dans son ouvrage Fontaines – Histoire de l’éjaculation féminine de la Chine ancienne à nos jours, publié en 2021.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Shannon Bell, Reading, writing, and rewriting the prostitute body, Bloomington, Indiana University Press, 1994 (ISBN 9780585000992)
 Shannon Bell, Whore carnival, Brooklyn, NY, Autonomedia, 1995 (ISBN 9781570270222)
